--- a/混床.xlsx
+++ b/混床.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bchangedong\PycharmProjects\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06DF618-1573-44DE-A48D-F85F49E01358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27611A7B-28D4-49FF-BD9E-11F2741250C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="3160" windowWidth="13110" windowHeight="16290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="2860" windowWidth="18990" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$6549</definedName>
     <definedName name="会36">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:I6549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I370" sqref="I370"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10345,10 +10345,10 @@
       </c>
       <c r="B368" s="1">
         <f t="shared" si="5"/>
-        <v>2415.4666652679439</v>
+        <v>2422.3783321380611</v>
       </c>
       <c r="C368" s="1">
-        <v>0</v>
+        <v>13.8233337402344</v>
       </c>
       <c r="D368" s="1">
         <v>1.26</v>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="B369" s="1">
         <f t="shared" si="5"/>
-        <v>2422.3816652297969</v>
+        <v>2429.2933320999141</v>
       </c>
       <c r="C369" s="1">
         <v>13.829999923706101</v>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B370" s="1">
         <f t="shared" si="5"/>
-        <v>2429.4133324623103</v>
+        <v>2436.3249993324275</v>
       </c>
       <c r="C370" s="1">
         <v>14.0633344650269</v>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="B371" s="1">
         <f t="shared" si="5"/>
-        <v>2436.3916659355159</v>
+        <v>2443.3033328056331</v>
       </c>
       <c r="C371" s="1">
         <v>13.956666946411101</v>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="B372" s="1">
         <f t="shared" si="5"/>
-        <v>2443.2833328247066</v>
+        <v>2450.1949996948238</v>
       </c>
       <c r="C372" s="1">
         <v>13.7833337783813</v>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B373" s="1">
         <f t="shared" si="5"/>
-        <v>2450.2083330154414</v>
+        <v>2457.1199998855586</v>
       </c>
       <c r="C373" s="1">
         <v>13.8500003814697</v>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B374" s="1">
         <f t="shared" si="5"/>
-        <v>2457.1716661453243</v>
+        <v>2464.0833330154414</v>
       </c>
       <c r="C374" s="1">
         <v>13.9266662597656</v>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="B375" s="1">
         <f t="shared" si="5"/>
-        <v>2464.1349992752071</v>
+        <v>2471.0466661453243</v>
       </c>
       <c r="C375" s="1">
         <v>13.9266662597656</v>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B376" s="1">
         <f t="shared" si="5"/>
-        <v>2471.0699992179866</v>
+        <v>2477.9816660881038</v>
       </c>
       <c r="C376" s="1">
         <v>13.8699998855591</v>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B377" s="1">
         <f t="shared" si="5"/>
-        <v>2477.9949994087215</v>
+        <v>2484.9066662788387</v>
       </c>
       <c r="C377" s="1">
         <v>13.8500003814697</v>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B378" s="1">
         <f t="shared" si="5"/>
-        <v>2484.9499993324275</v>
+        <v>2491.8616662025447</v>
       </c>
       <c r="C378" s="1">
         <v>13.9099998474121</v>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="B379" s="1">
         <f t="shared" si="5"/>
-        <v>2491.9616661071773</v>
+        <v>2498.8733329772945</v>
       </c>
       <c r="C379" s="1">
         <v>14.023333549499499</v>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B380" s="1">
         <f t="shared" si="5"/>
-        <v>2498.9016661643977</v>
+        <v>2505.8133330345149</v>
       </c>
       <c r="C380" s="1">
         <v>13.8800001144409</v>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B381" s="1">
         <f t="shared" si="5"/>
-        <v>2505.8249993324275</v>
+        <v>2512.7366662025447</v>
       </c>
       <c r="C381" s="1">
         <v>13.846666336059601</v>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="B382" s="1">
         <f t="shared" si="5"/>
-        <v>2512.8616662025447</v>
+        <v>2519.7733330726619</v>
       </c>
       <c r="C382" s="1">
         <v>14.0733337402344</v>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="B383" s="1">
         <f t="shared" si="5"/>
-        <v>2519.7733330726619</v>
+        <v>2526.6849999427791</v>
       </c>
       <c r="C383" s="1">
         <v>13.8233337402344</v>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="B384" s="1">
         <f t="shared" si="5"/>
-        <v>2526.7066664695735</v>
+        <v>2533.6183333396907</v>
       </c>
       <c r="C384" s="1">
         <v>13.8666667938232</v>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="B385" s="1">
         <f t="shared" si="5"/>
-        <v>2533.6299996376033</v>
+        <v>2540.5416665077205</v>
       </c>
       <c r="C385" s="1">
         <v>13.846666336059601</v>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B386" s="1">
         <f t="shared" si="5"/>
-        <v>2540.6049995422359</v>
+        <v>2547.5166664123531</v>
       </c>
       <c r="C386" s="1">
         <v>13.949999809265099</v>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="B387" s="1">
         <f t="shared" si="5"/>
-        <v>2547.5933327674861</v>
+        <v>2554.5049996376033</v>
       </c>
       <c r="C387" s="1">
         <v>13.976666450500501</v>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="B388" s="1">
         <f t="shared" ref="B388:B437" si="6">B387+C388*0.5</f>
-        <v>2554.5283327102657</v>
+        <v>2561.4399995803828</v>
       </c>
       <c r="C388" s="1">
         <v>13.8699998855591</v>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="B389" s="1">
         <f t="shared" si="6"/>
-        <v>2561.4633326530452</v>
+        <v>2568.3749995231624</v>
       </c>
       <c r="C389" s="1">
         <v>13.8699998855591</v>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="B390" s="1">
         <f t="shared" si="6"/>
-        <v>2568.4283328056331</v>
+        <v>2575.3399996757503</v>
       </c>
       <c r="C390" s="1">
         <v>13.930000305175801</v>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="B391" s="1">
         <f t="shared" si="6"/>
-        <v>2575.4483327865596</v>
+        <v>2582.3599996566768</v>
       </c>
       <c r="C391" s="1">
         <v>14.039999961853001</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B392" s="1">
         <f t="shared" si="6"/>
-        <v>2582.3333330154414</v>
+        <v>2589.2449998855586</v>
       </c>
       <c r="C392" s="1">
         <v>13.7700004577637</v>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B393" s="1">
         <f t="shared" si="6"/>
-        <v>2589.2499995231624</v>
+        <v>2596.1616663932796</v>
       </c>
       <c r="C393" s="1">
         <v>13.8333330154419</v>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="B394" s="1">
         <f t="shared" si="6"/>
-        <v>2596.1699995994563</v>
+        <v>2603.0816664695735</v>
       </c>
       <c r="C394" s="1">
         <v>13.8400001525879</v>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="B395" s="1">
         <f t="shared" si="6"/>
-        <v>2603.1583328247066</v>
+        <v>2610.0699996948238</v>
       </c>
       <c r="C395" s="1">
         <v>13.976666450500501</v>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B396" s="1">
         <f t="shared" si="6"/>
-        <v>2610.143332958221</v>
+        <v>2617.0549998283382</v>
       </c>
       <c r="C396" s="1">
         <v>13.9700002670288</v>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B397" s="1">
         <f t="shared" si="6"/>
-        <v>2617.1766662597652</v>
+        <v>2624.0883331298824</v>
       </c>
       <c r="C397" s="1">
         <v>14.0666666030884</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="B398" s="1">
         <f t="shared" si="6"/>
-        <v>2624.1066660881038</v>
+        <v>2631.018332958221</v>
       </c>
       <c r="C398" s="1">
         <v>13.8599996566772</v>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="B399" s="1">
         <f t="shared" si="6"/>
-        <v>2631.0216660499568</v>
+        <v>2637.933332920074</v>
       </c>
       <c r="C399" s="1">
         <v>13.829999923706101</v>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="B400" s="1">
         <f t="shared" si="6"/>
-        <v>2637.9483327865596</v>
+        <v>2644.8599996566768</v>
       </c>
       <c r="C400" s="1">
         <v>13.8533334732056</v>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="B401" s="1">
         <f t="shared" si="6"/>
-        <v>2644.848332881927</v>
+        <v>2651.7599997520442</v>
       </c>
       <c r="C401" s="1">
         <v>13.800000190734901</v>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B402" s="1">
         <f t="shared" si="6"/>
-        <v>2651.724999427795</v>
+        <v>2658.6366662979121</v>
       </c>
       <c r="C402" s="1">
         <v>13.753333091735801</v>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="B403" s="1">
         <f t="shared" si="6"/>
-        <v>2658.6466660499568</v>
+        <v>2665.558332920074</v>
       </c>
       <c r="C403" s="1">
         <v>13.8433332443237</v>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B404" s="1">
         <f t="shared" si="6"/>
-        <v>2665.5616660118098</v>
+        <v>2672.473332881927</v>
       </c>
       <c r="C404" s="1">
         <v>13.829999923706101</v>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="B405" s="1">
         <f t="shared" si="6"/>
-        <v>2672.5899991989131</v>
+        <v>2679.5016660690303</v>
       </c>
       <c r="C405" s="1">
         <v>14.0566663742065</v>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="B406" s="1">
         <f t="shared" si="6"/>
-        <v>2679.5683326721187</v>
+        <v>2686.4799995422359</v>
       </c>
       <c r="C406" s="1">
         <v>13.956666946411101</v>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="B407" s="1">
         <f t="shared" si="6"/>
-        <v>2686.5366654396053</v>
+        <v>2693.4483323097224</v>
       </c>
       <c r="C407" s="1">
         <v>13.9366655349731</v>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="B408" s="1">
         <f t="shared" si="6"/>
-        <v>2693.4133319854732</v>
+        <v>2700.3249988555904</v>
       </c>
       <c r="C408" s="1">
         <v>13.753333091735801</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B409" s="1">
         <f t="shared" si="6"/>
-        <v>2700.2966651916499</v>
+        <v>2707.2083320617671</v>
       </c>
       <c r="C409" s="1">
         <v>13.7666664123535</v>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="B410" s="1">
         <f t="shared" si="6"/>
-        <v>2707.2666649818416</v>
+        <v>2714.1783318519588</v>
       </c>
       <c r="C410" s="1">
         <v>13.939999580383301</v>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="B411" s="1">
         <f t="shared" si="6"/>
-        <v>2714.2616648674007</v>
+        <v>2721.1733317375179</v>
       </c>
       <c r="C411" s="1">
         <v>13.9899997711182</v>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B412" s="1">
         <f t="shared" si="6"/>
-        <v>2721.2516646385188</v>
+        <v>2728.163331508636</v>
       </c>
       <c r="C412" s="1">
         <v>13.9799995422363</v>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B413" s="1">
         <f t="shared" si="6"/>
-        <v>2728.2433314323421</v>
+        <v>2735.1549983024593</v>
       </c>
       <c r="C413" s="1">
         <v>13.9833335876465</v>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="B414" s="1">
         <f t="shared" si="6"/>
-        <v>2735.2216649055476</v>
+        <v>2742.1333317756648</v>
       </c>
       <c r="C414" s="1">
         <v>13.956666946411101</v>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="B415" s="1">
         <f t="shared" si="6"/>
-        <v>2742.1966648101802</v>
+        <v>2749.1083316802974</v>
       </c>
       <c r="C415" s="1">
         <v>13.949999809265099</v>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="B416" s="1">
         <f t="shared" si="6"/>
-        <v>2749.1883316040035</v>
+        <v>2756.0999984741206</v>
       </c>
       <c r="C416" s="1">
         <v>13.9833335876465</v>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="B417" s="1">
         <f t="shared" si="6"/>
-        <v>2756.1783313751216</v>
+        <v>2763.0899982452388</v>
       </c>
       <c r="C417" s="1">
         <v>13.9799995422363</v>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="B418" s="1">
         <f t="shared" si="6"/>
-        <v>2763.1649980545039</v>
+        <v>2770.0766649246211</v>
       </c>
       <c r="C418" s="1">
         <v>13.9733333587646</v>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="B419" s="1">
         <f t="shared" si="6"/>
-        <v>2770.163331508636</v>
+        <v>2777.0749983787532</v>
       </c>
       <c r="C419" s="1">
         <v>13.996666908264199</v>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="B420" s="1">
         <f t="shared" si="6"/>
-        <v>2777.1883316040035</v>
+        <v>2784.0999984741206</v>
       </c>
       <c r="C420" s="1">
         <v>14.050000190734901</v>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="B421" s="1">
         <f t="shared" si="6"/>
-        <v>2784.1883316040035</v>
+        <v>2791.0999984741206</v>
       </c>
       <c r="C421" s="1">
         <v>14</v>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="B422" s="1">
         <f t="shared" si="6"/>
-        <v>2791.1216650009151</v>
+        <v>2798.0333318710323</v>
       </c>
       <c r="C422" s="1">
         <v>13.8666667938232</v>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="B423" s="1">
         <f t="shared" si="6"/>
-        <v>2798.0466651916499</v>
+        <v>2804.9583320617671</v>
       </c>
       <c r="C423" s="1">
         <v>13.8500003814697</v>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="B424" s="1">
         <f t="shared" si="6"/>
-        <v>2804.9816651344295</v>
+        <v>2811.8933320045467</v>
       </c>
       <c r="C424" s="1">
         <v>13.8699998855591</v>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B425" s="1">
         <f t="shared" si="6"/>
-        <v>2812.0116653442378</v>
+        <v>2818.923332214355</v>
       </c>
       <c r="C425" s="1">
         <v>14.060000419616699</v>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="B426" s="1">
         <f t="shared" si="6"/>
-        <v>2818.9266653060909</v>
+        <v>2825.838332176208</v>
       </c>
       <c r="C426" s="1">
         <v>13.829999923706101</v>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="B427" s="1">
         <f t="shared" si="6"/>
-        <v>2825.8199987411494</v>
+        <v>2832.7316656112666</v>
       </c>
       <c r="C427" s="1">
         <v>13.7866668701172</v>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="B428" s="1">
         <f t="shared" si="6"/>
-        <v>2832.7333321571346</v>
+        <v>2839.6449990272517</v>
       </c>
       <c r="C428" s="1">
         <v>13.826666831970201</v>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B429" s="1">
         <f t="shared" si="6"/>
-        <v>2839.6449990272517</v>
+        <v>2846.5566658973689</v>
       </c>
       <c r="C429" s="1">
         <v>13.8233337402344</v>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B430" s="1">
         <f t="shared" si="6"/>
-        <v>2846.6049990653987</v>
+        <v>2853.5166659355159</v>
       </c>
       <c r="C430" s="1">
         <v>13.920000076293899</v>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="B431" s="1">
         <f t="shared" si="6"/>
-        <v>2853.6566658020015</v>
+        <v>2860.5683326721187</v>
       </c>
       <c r="C431" s="1">
         <v>14.1033334732056</v>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="B432" s="1">
         <f t="shared" si="6"/>
-        <v>2860.5716657638545</v>
+        <v>2867.4833326339717</v>
       </c>
       <c r="C432" s="1">
         <v>13.829999923706101</v>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="B433" s="1">
         <f t="shared" si="6"/>
-        <v>2867.5149989128108</v>
+        <v>2874.426665782928</v>
       </c>
       <c r="C433" s="1">
         <v>13.886666297912599</v>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="B434" s="1">
         <f t="shared" si="6"/>
-        <v>2874.4283323287959</v>
+        <v>2881.3399991989131</v>
       </c>
       <c r="C434" s="1">
         <v>13.826666831970201</v>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="B435" s="1">
         <f t="shared" si="6"/>
-        <v>2881.3483324050899</v>
+        <v>2888.2599992752071</v>
       </c>
       <c r="C435" s="1">
         <v>13.8400001525879</v>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B436" s="1">
         <f t="shared" si="6"/>
-        <v>2888.2816658020015</v>
+        <v>2895.1933326721187</v>
       </c>
       <c r="C436" s="1">
         <v>13.8666667938232</v>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="B437" s="1">
         <f t="shared" si="6"/>
-        <v>2895.3216657638545</v>
+        <v>2902.2333326339717</v>
       </c>
       <c r="C437" s="1">
         <v>14.079999923706101</v>
@@ -30566,7 +30566,7 @@
       <c r="H6549" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H437" xr:uid="{3270AB65-44FF-4A5C-A5DA-3086E4310D38}"/>
+  <autoFilter ref="H1:H6549" xr:uid="{551FE38E-E556-4B45-9257-9EA3888CC727}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
